--- a/data/input/employee_absence_data_44.xlsx
+++ b/data/input/employee_absence_data_44.xlsx
@@ -464,40 +464,40 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>12720</v>
+        <v>94177</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>João Guilherme Ribeiro</t>
+          <t>Aylla Cardoso</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45087</v>
+        <v>45100</v>
       </c>
       <c r="G2" t="n">
-        <v>3602.49</v>
+        <v>4198.8</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>37342</v>
+        <v>2214</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Mariana Almeida</t>
+          <t>Maitê da Luz</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -507,84 +507,84 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45088</v>
+        <v>45086</v>
       </c>
       <c r="G3" t="n">
-        <v>9622.59</v>
+        <v>2055.33</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>78204</v>
+        <v>55363</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sofia Araújo</t>
+          <t>Srta. Liz Pereira</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>TI</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45102</v>
+        <v>45103</v>
       </c>
       <c r="G4" t="n">
-        <v>2601.56</v>
+        <v>7773.59</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>57044</v>
+        <v>28003</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Srta. Maria Liz Fernandes</t>
+          <t>João Vitor Fernandes</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45079</v>
+        <v>45101</v>
       </c>
       <c r="G5" t="n">
-        <v>3267.51</v>
+        <v>2873.4</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>27823</v>
+        <v>45721</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Lorenzo Araújo</t>
+          <t>Manuela Castro</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -601,77 +601,77 @@
         <v>8</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45082</v>
+        <v>45098</v>
       </c>
       <c r="G6" t="n">
-        <v>7860.83</v>
+        <v>6390.97</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>29062</v>
+        <v>44110</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Carolina Barbosa</t>
+          <t>Alice Câmara</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45090</v>
+        <v>45104</v>
       </c>
       <c r="G7" t="n">
-        <v>5572.65</v>
+        <v>2386.39</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>35423</v>
+        <v>41952</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Dr. Eduardo Casa Grande</t>
+          <t>Antônio Ribeiro</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Atendimento ao Cliente</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45105</v>
+        <v>45082</v>
       </c>
       <c r="G8" t="n">
-        <v>9905.24</v>
+        <v>9196.459999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>39143</v>
+        <v>62586</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>João Felipe Abreu</t>
+          <t>Kevin Vieira</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -681,60 +681,60 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45079</v>
+        <v>45106</v>
       </c>
       <c r="G9" t="n">
-        <v>11874.24</v>
+        <v>3231.66</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>14505</v>
+        <v>12970</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Ana Clara Carvalho</t>
+          <t>Luara Sá</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Outros</t>
+          <t>Consulta medica</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45104</v>
+        <v>45100</v>
       </c>
       <c r="G10" t="n">
-        <v>6448.98</v>
+        <v>4866.08</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>84584</v>
+        <v>65106</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Dr. Kevin Pastor</t>
+          <t>Henrique da Rosa</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Vendas</t>
+          <t>Marketing</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -743,13 +743,13 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45093</v>
+        <v>45085</v>
       </c>
       <c r="G11" t="n">
-        <v>10629.37</v>
+        <v>4426.97</v>
       </c>
     </row>
   </sheetData>

--- a/data/input/employee_absence_data_44.xlsx
+++ b/data/input/employee_absence_data_44.xlsx
@@ -464,103 +464,103 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>94177</v>
+        <v>67743</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Aylla Cardoso</t>
+          <t>Emilly da Paz</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>P&amp;D</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>45100</v>
+        <v>45092</v>
       </c>
       <c r="G2" t="n">
-        <v>4198.8</v>
+        <v>5500.59</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2214</v>
+        <v>69524</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Maitê da Luz</t>
+          <t>Valentim Montenegro</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Juridico</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Consulta medica</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>45086</v>
+        <v>45106</v>
       </c>
       <c r="G3" t="n">
-        <v>2055.33</v>
+        <v>5092.02</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>55363</v>
+        <v>72334</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Srta. Liz Pereira</t>
+          <t>Ravi Lucca Cassiano</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TI</t>
+          <t>Engenharia</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Problemas pessoais</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" s="1" t="n">
-        <v>45103</v>
+        <v>45100</v>
       </c>
       <c r="G4" t="n">
-        <v>7773.59</v>
+        <v>4445.38</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>28003</v>
+        <v>23928</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>João Vitor Fernandes</t>
+          <t>Fernanda Pimenta</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -569,56 +569,56 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F5" s="1" t="n">
-        <v>45101</v>
+        <v>45091</v>
       </c>
       <c r="G5" t="n">
-        <v>2873.4</v>
+        <v>8659.360000000001</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>45721</v>
+        <v>12446</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Manuela Castro</t>
+          <t>Allana Fonseca</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="F6" s="1" t="n">
-        <v>45098</v>
+        <v>45106</v>
       </c>
       <c r="G6" t="n">
-        <v>6390.97</v>
+        <v>2880.41</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>44110</v>
+        <v>17134</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Alice Câmara</t>
+          <t>Vitor Mendonça</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Recursos Humanos</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -627,85 +627,85 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="F7" s="1" t="n">
-        <v>45104</v>
+        <v>45105</v>
       </c>
       <c r="G7" t="n">
-        <v>2386.39</v>
+        <v>9168.030000000001</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>41952</v>
+        <v>284</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Antônio Ribeiro</t>
+          <t>Ana Vitória Mendonça</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Financeiro</t>
+          <t>Operacoes</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Viagem de negocios</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F8" s="1" t="n">
-        <v>45082</v>
+        <v>45097</v>
       </c>
       <c r="G8" t="n">
-        <v>9196.459999999999</v>
+        <v>8878.219999999999</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>62586</v>
+        <v>39392</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Kevin Vieira</t>
+          <t>Noah Ribeiro</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>P&amp;D</t>
+          <t>Recursos Humanos</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Viagem de negocios</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F9" s="1" t="n">
-        <v>45106</v>
+        <v>45102</v>
       </c>
       <c r="G9" t="n">
-        <v>3231.66</v>
+        <v>8740.34</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>12970</v>
+        <v>55356</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Luara Sá</t>
+          <t>Enzo Nunes</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Engenharia</t>
+          <t>Financeiro</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -714,42 +714,42 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="F10" s="1" t="n">
-        <v>45100</v>
+        <v>45106</v>
       </c>
       <c r="G10" t="n">
-        <v>4866.08</v>
+        <v>5395.37</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>65106</v>
+        <v>56510</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Henrique da Rosa</t>
+          <t>José Cirino</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Marketing</t>
+          <t>Atendimento ao Cliente</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Problemas pessoais</t>
+          <t>Outros</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F11" s="1" t="n">
-        <v>45085</v>
+        <v>45080</v>
       </c>
       <c r="G11" t="n">
-        <v>4426.97</v>
+        <v>9297.43</v>
       </c>
     </row>
   </sheetData>
